--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam15-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam15-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.70817566666667</v>
+        <v>62.74008966666666</v>
       </c>
       <c r="H2">
-        <v>152.124527</v>
+        <v>188.220269</v>
       </c>
       <c r="I2">
-        <v>0.5661129211027078</v>
+        <v>0.6543216524118473</v>
       </c>
       <c r="J2">
-        <v>0.5661129211027077</v>
+        <v>0.6543216524118471</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>7785.176380869378</v>
+        <v>9141.277784886772</v>
       </c>
       <c r="R2">
-        <v>70066.5874278244</v>
+        <v>82271.50006398094</v>
       </c>
       <c r="S2">
-        <v>0.1795827353460201</v>
+        <v>0.1875245124358747</v>
       </c>
       <c r="T2">
-        <v>0.1795827353460201</v>
+        <v>0.1875245124358746</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.70817566666667</v>
+        <v>62.74008966666666</v>
       </c>
       <c r="H3">
-        <v>152.124527</v>
+        <v>188.220269</v>
       </c>
       <c r="I3">
-        <v>0.5661129211027078</v>
+        <v>0.6543216524118473</v>
       </c>
       <c r="J3">
-        <v>0.5661129211027077</v>
+        <v>0.6543216524118471</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
-        <v>8559.524975302436</v>
+        <v>10590.50848101334</v>
       </c>
       <c r="R3">
-        <v>77035.72477772193</v>
+        <v>95314.57632912006</v>
       </c>
       <c r="S3">
-        <v>0.1974448404412043</v>
+        <v>0.2172540848319294</v>
       </c>
       <c r="T3">
-        <v>0.1974448404412043</v>
+        <v>0.2172540848319293</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.70817566666667</v>
+        <v>62.74008966666666</v>
       </c>
       <c r="H4">
-        <v>152.124527</v>
+        <v>188.220269</v>
       </c>
       <c r="I4">
-        <v>0.5661129211027078</v>
+        <v>0.6543216524118473</v>
       </c>
       <c r="J4">
-        <v>0.5661129211027077</v>
+        <v>0.6543216524118471</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>4744.392458326891</v>
+        <v>8038.646432431868</v>
       </c>
       <c r="R4">
-        <v>42699.53212494202</v>
+        <v>72347.81789188681</v>
       </c>
       <c r="S4">
-        <v>0.109440163400155</v>
+        <v>0.164905091865649</v>
       </c>
       <c r="T4">
-        <v>0.1094401634001549</v>
+        <v>0.164905091865649</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.70817566666667</v>
+        <v>62.74008966666666</v>
       </c>
       <c r="H5">
-        <v>152.124527</v>
+        <v>188.220269</v>
       </c>
       <c r="I5">
-        <v>0.5661129211027078</v>
+        <v>0.6543216524118473</v>
       </c>
       <c r="J5">
-        <v>0.5661129211027077</v>
+        <v>0.6543216524118471</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>3452.736076786799</v>
+        <v>4125.855993036749</v>
       </c>
       <c r="R5">
-        <v>31074.6246910812</v>
+        <v>37132.70393733074</v>
       </c>
       <c r="S5">
-        <v>0.07964518191532841</v>
+        <v>0.08463796327839428</v>
       </c>
       <c r="T5">
-        <v>0.07964518191532839</v>
+        <v>0.08463796327839426</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>51.26051</v>
       </c>
       <c r="I6">
-        <v>0.1907597520636141</v>
+        <v>0.1782000513806195</v>
       </c>
       <c r="J6">
-        <v>0.1907597520636141</v>
+        <v>0.1782000513806195</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>2623.325242768502</v>
+        <v>2489.564826331038</v>
       </c>
       <c r="R6">
-        <v>23609.92718491652</v>
+        <v>22406.08343697934</v>
       </c>
       <c r="S6">
-        <v>0.06051294148662836</v>
+        <v>0.05107102543225183</v>
       </c>
       <c r="T6">
-        <v>0.06051294148662836</v>
+        <v>0.05107102543225182</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>51.26051</v>
       </c>
       <c r="I7">
-        <v>0.1907597520636141</v>
+        <v>0.1782000513806195</v>
       </c>
       <c r="J7">
-        <v>0.1907597520636141</v>
+        <v>0.1782000513806195</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
         <v>2884.252948847231</v>
@@ -883,10 +883,10 @@
         <v>25958.27653962509</v>
       </c>
       <c r="S7">
-        <v>0.06653183032006903</v>
+        <v>0.05916767225568022</v>
       </c>
       <c r="T7">
-        <v>0.06653183032006901</v>
+        <v>0.0591676722556802</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>51.26051</v>
       </c>
       <c r="I8">
-        <v>0.1907597520636141</v>
+        <v>0.1782000513806195</v>
       </c>
       <c r="J8">
-        <v>0.1907597520636141</v>
+        <v>0.1782000513806195</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>1598.690111647743</v>
+        <v>2189.270677517405</v>
       </c>
       <c r="R8">
-        <v>14388.21100482969</v>
+        <v>19703.43609765664</v>
       </c>
       <c r="S8">
-        <v>0.03687741024414345</v>
+        <v>0.04491078009579309</v>
       </c>
       <c r="T8">
-        <v>0.03687741024414345</v>
+        <v>0.04491078009579309</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>51.26051</v>
       </c>
       <c r="I9">
-        <v>0.1907597520636141</v>
+        <v>0.1782000513806195</v>
       </c>
       <c r="J9">
-        <v>0.1907597520636141</v>
+        <v>0.1782000513806195</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>1163.448233377189</v>
+        <v>1123.648815896763</v>
       </c>
       <c r="R9">
-        <v>10471.0341003947</v>
+        <v>10112.83934307087</v>
       </c>
       <c r="S9">
-        <v>0.02683757001277323</v>
+        <v>0.02305057359689441</v>
       </c>
       <c r="T9">
-        <v>0.02683757001277323</v>
+        <v>0.02305057359689441</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.438381</v>
+        <v>2.950144666666667</v>
       </c>
       <c r="H10">
-        <v>10.315143</v>
+        <v>8.850434</v>
       </c>
       <c r="I10">
-        <v>0.03838654982521095</v>
+        <v>0.03076730593473967</v>
       </c>
       <c r="J10">
-        <v>0.03838654982521095</v>
+        <v>0.03076730593473966</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N10">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q10">
-        <v>527.8912561476039</v>
+        <v>429.8382748077285</v>
       </c>
       <c r="R10">
-        <v>4751.021305328436</v>
+        <v>3868.544473269556</v>
       </c>
       <c r="S10">
-        <v>0.01217700808644323</v>
+        <v>0.008817718354742593</v>
       </c>
       <c r="T10">
-        <v>0.01217700808644323</v>
+        <v>0.008817718354742592</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.438381</v>
+        <v>2.950144666666667</v>
       </c>
       <c r="H11">
-        <v>10.315143</v>
+        <v>8.850434</v>
       </c>
       <c r="I11">
-        <v>0.03838654982521095</v>
+        <v>0.03076730593473967</v>
       </c>
       <c r="J11">
-        <v>0.03838654982521095</v>
+        <v>0.03076730593473966</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P11">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q11">
-        <v>580.3976904547161</v>
+        <v>497.9835425569859</v>
       </c>
       <c r="R11">
-        <v>5223.579214092445</v>
+        <v>4481.851883012872</v>
       </c>
       <c r="S11">
-        <v>0.01338818797946505</v>
+        <v>0.0102156529116181</v>
       </c>
       <c r="T11">
-        <v>0.01338818797946504</v>
+        <v>0.0102156529116181</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.438381</v>
+        <v>2.950144666666667</v>
       </c>
       <c r="H12">
-        <v>10.315143</v>
+        <v>8.850434</v>
       </c>
       <c r="I12">
-        <v>0.03838654982521095</v>
+        <v>0.03076730593473967</v>
       </c>
       <c r="J12">
-        <v>0.03838654982521095</v>
+        <v>0.03076730593473966</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N12">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q12">
-        <v>321.704117152413</v>
+        <v>377.9906918503751</v>
       </c>
       <c r="R12">
-        <v>2895.337054371717</v>
+        <v>3401.916226653376</v>
       </c>
       <c r="S12">
-        <v>0.007420834481319142</v>
+        <v>0.007754115109785884</v>
       </c>
       <c r="T12">
-        <v>0.007420834481319141</v>
+        <v>0.007754115109785882</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.438381</v>
+        <v>2.950144666666667</v>
       </c>
       <c r="H13">
-        <v>10.315143</v>
+        <v>8.850434</v>
       </c>
       <c r="I13">
-        <v>0.03838654982521095</v>
+        <v>0.03076730593473967</v>
       </c>
       <c r="J13">
-        <v>0.03838654982521095</v>
+        <v>0.03076730593473966</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N13">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q13">
-        <v>234.12047403319</v>
+        <v>194.0046964860953</v>
       </c>
       <c r="R13">
-        <v>2107.084266298711</v>
+        <v>1746.042268374858</v>
       </c>
       <c r="S13">
-        <v>0.005400519277983533</v>
+        <v>0.003979819558593088</v>
       </c>
       <c r="T13">
-        <v>0.005400519277983533</v>
+        <v>0.003979819558593087</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.33915266666667</v>
+        <v>13.108629</v>
       </c>
       <c r="H14">
-        <v>55.017458</v>
+        <v>39.325887</v>
       </c>
       <c r="I14">
-        <v>0.2047407770084672</v>
+        <v>0.1367109902727936</v>
       </c>
       <c r="J14">
-        <v>0.2047407770084671</v>
+        <v>0.1367109902727935</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N14">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q14">
-        <v>2815.592087639312</v>
+        <v>1909.937006859062</v>
       </c>
       <c r="R14">
-        <v>25340.32878875381</v>
+        <v>17189.43306173156</v>
       </c>
       <c r="S14">
-        <v>0.06494801196275718</v>
+        <v>0.03918051878771518</v>
       </c>
       <c r="T14">
-        <v>0.06494801196275717</v>
+        <v>0.03918051878771516</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.33915266666667</v>
+        <v>13.108629</v>
       </c>
       <c r="H15">
-        <v>55.017458</v>
+        <v>39.325887</v>
       </c>
       <c r="I15">
-        <v>0.2047407770084672</v>
+        <v>0.1367109902727936</v>
       </c>
       <c r="J15">
-        <v>0.2047407770084671</v>
+        <v>0.1367109902727935</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P15">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q15">
-        <v>3095.643517291941</v>
+        <v>2212.732677567644</v>
       </c>
       <c r="R15">
-        <v>27860.79165562746</v>
+        <v>19914.5940981088</v>
       </c>
       <c r="S15">
-        <v>0.07140803281702668</v>
+        <v>0.04539208043735646</v>
       </c>
       <c r="T15">
-        <v>0.07140803281702665</v>
+        <v>0.04539208043735645</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.33915266666667</v>
+        <v>13.108629</v>
       </c>
       <c r="H16">
-        <v>55.017458</v>
+        <v>39.325887</v>
       </c>
       <c r="I16">
-        <v>0.2047407770084672</v>
+        <v>0.1367109902727936</v>
       </c>
       <c r="J16">
-        <v>0.2047407770084671</v>
+        <v>0.1367109902727935</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N16">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q16">
-        <v>1715.860144048411</v>
+        <v>1679.558226721952</v>
       </c>
       <c r="R16">
-        <v>15442.7412964357</v>
+        <v>15116.02404049757</v>
       </c>
       <c r="S16">
-        <v>0.03958020256247807</v>
+        <v>0.0344545199243825</v>
       </c>
       <c r="T16">
-        <v>0.03958020256247805</v>
+        <v>0.03445451992438249</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.33915266666667</v>
+        <v>13.108629</v>
       </c>
       <c r="H17">
-        <v>55.017458</v>
+        <v>39.325887</v>
       </c>
       <c r="I17">
-        <v>0.2047407770084672</v>
+        <v>0.1367109902727936</v>
       </c>
       <c r="J17">
-        <v>0.2047407770084671</v>
+        <v>0.1367109902727935</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N17">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q17">
-        <v>1248.718834732696</v>
+        <v>862.037587250691</v>
       </c>
       <c r="R17">
-        <v>11238.46951259426</v>
+        <v>7758.338285256219</v>
       </c>
       <c r="S17">
-        <v>0.02880452966620524</v>
+        <v>0.01768387112333945</v>
       </c>
       <c r="T17">
-        <v>0.02880452966620524</v>
+        <v>0.01768387112333945</v>
       </c>
     </row>
   </sheetData>
